--- a/data/trans_dic/P6907S1-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P6907S1-Dificultad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.139702919599998</v>
+        <v>0.1397029195999981</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.09807370194560727</v>
@@ -708,36 +708,36 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02289411801987613</v>
+        <v>0.02184421344683612</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0</v>
+        <v>0.02974503327706543</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0391321095440296</v>
+        <v>0.04261210887376714</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06564312657405987</v>
+        <v>0.05203934510977994</v>
       </c>
       <c r="H5" s="5" t="inlineStr"/>
       <c r="I5" s="5" t="inlineStr"/>
       <c r="J5" s="5" t="n">
-        <v>0.07357159321967172</v>
+        <v>0.0691041830927816</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04903701708320228</v>
+        <v>0.05109450099825028</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01456712115952727</v>
+        <v>0.0147386004702301</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.07124140259636498</v>
+        <v>0.0709667480132613</v>
       </c>
     </row>
     <row r="6">
@@ -748,36 +748,36 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.172970405489712</v>
+        <v>0.1735771429272465</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2402036970255423</v>
+        <v>0.224136685414814</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08462347657147028</v>
+        <v>0.08586783055937043</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2167788250127763</v>
+        <v>0.2170518275276205</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2740363006067165</v>
+        <v>0.2764753758913062</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="n">
-        <v>0.2555584137988833</v>
+        <v>0.2395468938429165</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.169308281775229</v>
+        <v>0.1641923216214465</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1221740160345837</v>
+        <v>0.1379593125947982</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04859348817251396</v>
+        <v>0.05007184822379666</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1921764134096612</v>
+        <v>0.1910569463272605</v>
       </c>
     </row>
     <row r="7">
@@ -825,7 +825,7 @@
         <v>0.03438079700269293</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.04823910815090524</v>
+        <v>0.04823910815090525</v>
       </c>
     </row>
     <row r="8">
@@ -836,38 +836,38 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03978892910992397</v>
+        <v>0.04456639707175014</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02385270279656666</v>
+        <v>0.02244508673737339</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.009168598913379081</v>
+        <v>0.009440404149549806</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01905626827812634</v>
+        <v>0.02230869825883471</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0593875561111802</v>
+        <v>0.05695447691026206</v>
       </c>
       <c r="H8" s="5" t="inlineStr"/>
       <c r="I8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01871423690221298</v>
+        <v>0.01975980956421663</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05767492491424801</v>
+        <v>0.05833023080437712</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01455409391807149</v>
+        <v>0.01395553605276121</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01248975729090864</v>
+        <v>0.01176840440848403</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.025004764165157</v>
+        <v>0.02617366956863185</v>
       </c>
     </row>
     <row r="9">
@@ -878,38 +878,38 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1313596195406741</v>
+        <v>0.1320187162534091</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1950331706190333</v>
+        <v>0.1989410303833944</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08347351397077438</v>
+        <v>0.09290545800119805</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1139075128091263</v>
+        <v>0.1063617263206623</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2100787554880109</v>
+        <v>0.2151787559615536</v>
       </c>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="n">
-        <v>0.09801808533063831</v>
+        <v>0.1154779977009553</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.08776721351765</v>
+        <v>0.09085714996153593</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1301151989294978</v>
+        <v>0.1347845746386435</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1262113368079873</v>
+        <v>0.1263724450189559</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.06922196897165174</v>
+        <v>0.068347143270913</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.08365111560387029</v>
+        <v>0.08012042952829865</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.09743921955478456</v>
+        <v>0.09743921955478459</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.08134275387692157</v>
@@ -968,38 +968,38 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05966912135603698</v>
+        <v>0.06374003946465238</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0216555703729504</v>
+        <v>0.02120718793136428</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08287174678371201</v>
+        <v>0.08059102711710391</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01241305966646064</v>
+        <v>0.01259000843032623</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
-        <v>0.05547351533430548</v>
+        <v>0.05585737089773851</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0515193339355015</v>
+        <v>0.05070731402445836</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01193473637920111</v>
+        <v>0.01188044751737194</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.0141880321865923</v>
+        <v>0.01367179955106384</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.08299996748450775</v>
+        <v>0.08187562439117115</v>
       </c>
     </row>
     <row r="12">
@@ -1010,38 +1010,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1758646818295291</v>
+        <v>0.1694008396320757</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09049492629908451</v>
+        <v>0.07334498421966534</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1200649890455019</v>
+        <v>0.1256367344985727</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2816945444670944</v>
+        <v>0.2690371978681273</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1095644663889768</v>
+        <v>0.1138795003434241</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2734516542040815</v>
+        <v>0.2586695243608345</v>
       </c>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.1583490443521672</v>
+        <v>0.1620419162519759</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1280650629625517</v>
+        <v>0.1236828460789667</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1041537377945465</v>
+        <v>0.1010548494335734</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.08969053013911231</v>
+        <v>0.08308355341838623</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1948722120764604</v>
+        <v>0.1894778139682544</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.07338411245271786</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.1135152868746145</v>
+        <v>0.1135152868746146</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.1481234290274542</v>
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06567356490368224</v>
+        <v>0.05657900053107594</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0</v>
@@ -1109,31 +1109,31 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05631211924751227</v>
+        <v>0.05517895251064217</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06878790943166053</v>
+        <v>0.06434838777026154</v>
       </c>
       <c r="H14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02011885361247737</v>
+        <v>0.01981814163133846</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0571356419301612</v>
+        <v>0.05538974978477161</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.08601348010056774</v>
+        <v>0.08964634462774064</v>
       </c>
       <c r="L14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.009238479993741885</v>
+        <v>0.008897910215284754</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.07083966044420516</v>
+        <v>0.07038178879963307</v>
       </c>
     </row>
     <row r="15">
@@ -1144,40 +1144,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2353413787984026</v>
+        <v>0.2241628455382455</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2027984009330135</v>
+        <v>0.2550424793186959</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08044942025556576</v>
+        <v>0.07525551635570962</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2235641155144187</v>
+        <v>0.2122208800773761</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3670095097986916</v>
+        <v>0.3631094261295225</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2892854914209838</v>
+        <v>0.2495992186739542</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2015427313569152</v>
+        <v>0.216944100944394</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2334741560361152</v>
+        <v>0.2137591902434915</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.221864505069413</v>
+        <v>0.2263833124791927</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1675388248682428</v>
+        <v>0.1640622726528328</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.09418944066498312</v>
+        <v>0.1006328366670388</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1761573747344193</v>
+        <v>0.1777182833128146</v>
       </c>
     </row>
     <row r="16">
@@ -1236,40 +1236,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06913572457270538</v>
+        <v>0.06721882422434443</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02726088378649663</v>
+        <v>0.02646766334132671</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01848917469959154</v>
+        <v>0.01762013215377562</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07494807128406764</v>
+        <v>0.07225426370324879</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.07155843227762516</v>
+        <v>0.074898073833478</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.008967359125121237</v>
+        <v>0.00029510510445514</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.008903274207891901</v>
+        <v>0.008716335414728993</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.06628084995728854</v>
+        <v>0.06748358490663993</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.07582522091171168</v>
+        <v>0.0753868709165062</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02353232510261353</v>
+        <v>0.02331544189016896</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01961183457396409</v>
+        <v>0.018302282182935</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.07651503828335823</v>
+        <v>0.07619556034199514</v>
       </c>
     </row>
     <row r="18">
@@ -1280,40 +1280,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1269570171588757</v>
+        <v>0.1228715741606439</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1063297267122749</v>
+        <v>0.1005730843511929</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05793329884740281</v>
+        <v>0.06038333023562183</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1445816089800437</v>
+        <v>0.1425355968886125</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1528638663928821</v>
+        <v>0.1551129796159994</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.07968909856953987</v>
+        <v>0.08431024124503823</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.054498297357329</v>
+        <v>0.05589473092014268</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1261859764968429</v>
+        <v>0.1250860931648421</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1241875076940045</v>
+        <v>0.1210518082130286</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.07524345528342215</v>
+        <v>0.0725616077773812</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.04928211816864982</v>
+        <v>0.04894002389888827</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1243107140219865</v>
+        <v>0.1237602889337896</v>
       </c>
     </row>
     <row r="19">
@@ -1584,36 +1584,36 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1932</v>
+        <v>1843</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2278</v>
+        <v>2481</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2985</v>
+        <v>2366</v>
       </c>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="n">
-        <v>4272</v>
+        <v>4013</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>6368</v>
+        <v>6635</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>978</v>
+        <v>990</v>
       </c>
       <c r="M6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>8285</v>
+        <v>8253</v>
       </c>
     </row>
     <row r="7">
@@ -1624,36 +1624,36 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>14596</v>
+        <v>14647</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>7756</v>
+        <v>7237</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>7023</v>
+        <v>7126</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>12621</v>
+        <v>12637</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>12460</v>
+        <v>12571</v>
       </c>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="n">
-        <v>14839</v>
+        <v>13910</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>21985</v>
+        <v>21321</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>8206</v>
+        <v>9266</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>7108</v>
+        <v>7324</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>22348</v>
+        <v>22218</v>
       </c>
     </row>
     <row r="8">
@@ -1756,38 +1756,38 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6863</v>
+        <v>7687</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>919</v>
+        <v>865</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1008</v>
+        <v>1038</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2422</v>
+        <v>2835</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3889</v>
+        <v>3730</v>
       </c>
       <c r="H10" s="6" t="inlineStr"/>
       <c r="I10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1959</v>
+        <v>2068</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>13725</v>
+        <v>13881</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>938</v>
+        <v>900</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>2124</v>
+        <v>2001</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>5795</v>
+        <v>6066</v>
       </c>
     </row>
     <row r="11">
@@ -1798,38 +1798,38 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>22657</v>
+        <v>22770</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>7514</v>
+        <v>7664</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>9176</v>
+        <v>10213</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>14478</v>
+        <v>13519</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>13758</v>
+        <v>14092</v>
       </c>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>5895</v>
+        <v>6945</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>9186</v>
+        <v>9510</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>30963</v>
+        <v>32074</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>8135</v>
+        <v>8146</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>11772</v>
+        <v>11624</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>19388</v>
+        <v>18569</v>
       </c>
     </row>
     <row r="12">
@@ -1932,38 +1932,38 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>8764</v>
+        <v>9362</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1908</v>
+        <v>1869</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>8009</v>
+        <v>7788</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>966</v>
+        <v>979</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>5239</v>
+        <v>5275</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>11575</v>
+        <v>11392</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1906</v>
+        <v>1836</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>15859</v>
+        <v>15644</v>
       </c>
     </row>
     <row r="15">
@@ -1974,38 +1974,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>25832</v>
+        <v>24882</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4925</v>
+        <v>3991</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10579</v>
+        <v>11070</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>27223</v>
+        <v>26000</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8522</v>
+        <v>8858</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>6443</v>
+        <v>6094</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>14953</v>
+        <v>15302</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>28772</v>
+        <v>27788</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>8122</v>
+        <v>7880</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>12047</v>
+        <v>11160</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>37235</v>
+        <v>36204</v>
       </c>
     </row>
     <row r="16">
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4448</v>
+        <v>3832</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>0</v>
@@ -2117,31 +2117,31 @@
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>5545</v>
+        <v>5434</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2159</v>
+        <v>2019</v>
       </c>
       <c r="H18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>939</v>
+        <v>925</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>4677</v>
+        <v>4534</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>8525</v>
+        <v>8886</v>
       </c>
       <c r="L18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1042</v>
+        <v>1004</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>12774</v>
+        <v>12692</v>
       </c>
     </row>
     <row r="19">
@@ -2152,40 +2152,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>15941</v>
+        <v>15184</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>3518</v>
+        <v>4424</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>5321</v>
+        <v>4978</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>22015</v>
+        <v>20898</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>11517</v>
+        <v>11395</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>4567</v>
+        <v>3940</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>9405</v>
+        <v>10124</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>19111</v>
+        <v>17497</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>21991</v>
+        <v>22439</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>5551</v>
+        <v>5436</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>10626</v>
+        <v>11352</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>31766</v>
+        <v>32047</v>
       </c>
     </row>
     <row r="20">
@@ -2288,40 +2288,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>32596</v>
+        <v>31693</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3887</v>
+        <v>3774</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>6419</v>
+        <v>6117</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>28513</v>
+        <v>27488</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>15752</v>
+        <v>16487</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>898</v>
+        <v>30</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1926</v>
+        <v>1885</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>22471</v>
+        <v>22878</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>52441</v>
+        <v>52138</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>5712</v>
+        <v>5660</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>11051</v>
+        <v>10313</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>55049</v>
+        <v>54819</v>
       </c>
     </row>
     <row r="23">
@@ -2332,40 +2332,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>59858</v>
+        <v>57932</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>15160</v>
+        <v>14339</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>20113</v>
+        <v>20964</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>55004</v>
+        <v>54226</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>33649</v>
+        <v>34144</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>7982</v>
+        <v>8445</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>11788</v>
+        <v>12090</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>42780</v>
+        <v>42407</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>85889</v>
+        <v>83720</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>18264</v>
+        <v>17613</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>27769</v>
+        <v>27576</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>89436</v>
+        <v>89040</v>
       </c>
     </row>
     <row r="24">
